--- a/biology/Botanique/+Laburnocytisus_adamii/+Laburnocytisus_adamii.xlsx
+++ b/biology/Botanique/+Laburnocytisus_adamii/+Laburnocytisus_adamii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%2BLaburnocytisus_adamii</t>
+          <t>+Laburnocytisus_adamii</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 +Laburnocytisus adamii, ou cytise bicolore d'Adam, est une espèce de plantes dicotylédones de la famille légumineuse, sous-famille des  Faboideae (ou Papilionaceae). On ne connait qu'un seul cultivar, 'Adamii' (officiellement désigné +Laburnocytisus 'Adamii'), issu de cette greffe.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%2BLaburnocytisus_adamii</t>
+          <t>+Laburnocytisus_adamii</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des branches de l'arbre ressemblent à celles du cytise par leurs feuilles  trifoliolées de 3  à 6 cm de long, mais présentent aussi des branches denses de type genêt, aux feuilles également à trois folioles, mais de seulement 1 cm de long et d'un vert plus foncé.
 La plante fleurit à la fin du printemps ou au début de l'été. Certaines branches ont de longues grappes de fleurs jaunes (de 20 à 30 cm de long), tandis que d'autres produisent des grappes denses de fleurs de genêt pourpres.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%2BLaburnocytisus_adamii</t>
+          <t>+Laburnocytisus_adamii</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est apparue dans la pépinière de Jean-Louis Adam près de Paris en 1825, probablement par accident[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est apparue dans la pépinière de Jean-Louis Adam près de Paris en 1825, probablement par accident.
 Chamaecytisus purpureus est normalement une plante à croissance lente et sa greffe sur le tronc droit d'une espèce apparentée devrait permettre de créer une nouvelle forme horticole attrayante au port  semi-pleureur.
 En théorie, d'autres  +Laburnocytisus pourraient être créés de la même manière, mais en ayant recours à d'autres « parents ».
 </t>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%2BLaburnocytisus_adamii</t>
+          <t>+Laburnocytisus_adamii</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,9 +597,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une chimère de greffe n'est pas un véritable hybride mais un mélange de cellules, chacune portant le génotype de l'un de ses « parents ». C'est une chimère créée par greffage dans laquelle le tissu d'une plante pousse dans une enveloppe extérieure d'une seconde plante. Dans le cas de +Laburnocytisus adamii, le cytise forme le noyau, entouré par le genêt[3]. De telles plantes sont souvent appelées « hybrides de greffe », mais comme ce ne sont pas de vrais hybrides, l'usage de ce terme est déconseillé.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une chimère de greffe n'est pas un véritable hybride mais un mélange de cellules, chacune portant le génotype de l'un de ses « parents ». C'est une chimère créée par greffage dans laquelle le tissu d'une plante pousse dans une enveloppe extérieure d'une seconde plante. Dans le cas de +Laburnocytisus adamii, le cytise forme le noyau, entouré par le genêt. De telles plantes sont souvent appelées « hybrides de greffe », mais comme ce ne sont pas de vrais hybrides, l'usage de ce terme est déconseillé.
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%2BLaburnocytisus_adamii</t>
+          <t>+Laburnocytisus_adamii</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Autres chimères de greffe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+Crataegomespilus est une chimère issue d'une greffe entre une aubépine (Crataegus) et un néflier (Mespilus) qui est apparue d'une manière similaire. Il existe deux cultivars distincts issus de cette greffe : +Crataegomespilus 'Dardarii' et +Crataegomespilus 'Jules d'Asnieres'[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+Crataegomespilus est une chimère issue d'une greffe entre une aubépine (Crataegus) et un néflier (Mespilus) qui est apparue d'une manière similaire. Il existe deux cultivars distincts issus de cette greffe : +Crataegomespilus 'Dardarii' et +Crataegomespilus 'Jules d'Asnieres'.
 Le citronnier  Bizzaria de Florence (Citrus medica + Citrus aurantium), qui est probablement la première chimère de greffe obtenue, est issu d'une greffe entre le cédrat de Florence et le bigaradier.
 </t>
         </is>
